--- a/evaluation/results/LOF/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/LOF/split_5/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2235067437379576</v>
       </c>
       <c r="H2">
-        <v>0.5823970037453184</v>
+        <v>0.7108950890039136</v>
       </c>
       <c r="I2">
         <v>116</v>
